--- a/addons/pharma-pos/demo_excel/deliveries/pharma_pos.delivery.xlsx
+++ b/addons/pharma-pos/demo_excel/deliveries/pharma_pos.delivery.xlsx
@@ -31,28 +31,28 @@
     <t>Batches</t>
   </si>
   <si>
-    <t>1</t>
+    <t>123</t>
   </si>
   <si>
     <t>My Company</t>
   </si>
   <si>
-    <t>(Aciclovir) 200 mg Tablet 1x: ₱2.0 (2021-02-26)</t>
-  </si>
-  <si>
-    <t>Cisflem (Carbo) 125 mg/60 ml Syrup 100x: ₱8.0 (2021-02-17)</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Cisflem (Carbo) 125 mg/60 ml Syrup 50x: ₱9.0 (2021-03-04)</t>
-  </si>
-  <si>
-    <t>(Aciclovir) 200 mg Tablet 1x: ₱2.0 (2021-02-22)</t>
-  </si>
-  <si>
-    <t>Mucosolve (Ambroxol) 30 mg/60 ml Syrup 50x: ₱6.0 (2021-02-08)</t>
+    <t>(Aciclovir) 200 mg Tablet 5x: ₱5.0 (2021-02-12 | 1)</t>
+  </si>
+  <si>
+    <t>Mucosolve (Ambroxol) 15 mg/60 ml Syrup 1x: ₱9.0 (2021-02-19 | 45)</t>
+  </si>
+  <si>
+    <t>(Aciclovir) 200 mg Tablet 1x: ₱2.0 (2021-02-15 | 4)</t>
+  </si>
+  <si>
+    <t>43253</t>
+  </si>
+  <si>
+    <t>(Allopurinol) 100 mg Tablet 10x: ₱2.0 (2021-02-17 | 456)</t>
+  </si>
+  <si>
+    <t>Cisflem (Carbo) 125 mg/60 ml Syrup 50x: ₱9.0 (2021-02-24 | 5678)</t>
   </si>
 </sst>
 </file>
@@ -455,27 +455,27 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>

--- a/addons/pharma-pos/demo_excel/deliveries/pharma_pos.delivery.xlsx
+++ b/addons/pharma-pos/demo_excel/deliveries/pharma_pos.delivery.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Invoice Date</t>
   </si>
@@ -31,28 +31,37 @@
     <t>Batches</t>
   </si>
   <si>
-    <t>123</t>
+    <t>1</t>
   </si>
   <si>
     <t>My Company</t>
   </si>
   <si>
-    <t>(Aciclovir) 200 mg Tablet 5x: ₱5.0 (2021-02-12 | 1)</t>
-  </si>
-  <si>
-    <t>Mucosolve (Ambroxol) 15 mg/60 ml Syrup 1x: ₱9.0 (2021-02-19 | 45)</t>
-  </si>
-  <si>
-    <t>(Aciclovir) 200 mg Tablet 1x: ₱2.0 (2021-02-15 | 4)</t>
-  </si>
-  <si>
-    <t>43253</t>
-  </si>
-  <si>
-    <t>(Allopurinol) 100 mg Tablet 10x: ₱2.0 (2021-02-17 | 456)</t>
-  </si>
-  <si>
-    <t>Cisflem (Carbo) 125 mg/60 ml Syrup 50x: ₱9.0 (2021-02-24 | 5678)</t>
+    <t>(Aciclovir) 200 mg Tablet 5x: ₱5.0 (2021-02-10 | 23)</t>
+  </si>
+  <si>
+    <t>Mucosolve (Ambroxol) 15 mg/60 ml Syrup 1x: ₱9.0 (2021-02-27 | 56)</t>
+  </si>
+  <si>
+    <t>(Aciclovir) 200 mg Tablet 1x: ₱2.0 (2021-02-16 | 4567)</t>
+  </si>
+  <si>
+    <t>(Allopurinol) 100 mg Tablet 10x: ₱2.0 (2021-03-06 | 675)</t>
+  </si>
+  <si>
+    <t>Mucosolve (Ambroxol) 30 mg/60 ml Syrup 50x: ₱6.0 (2021-02-10 | 23)</t>
+  </si>
+  <si>
+    <t>4543</t>
+  </si>
+  <si>
+    <t>Cisflem (Carbo) 125 mg/60 ml Syrup 100x: ₱8.0 (2021-03-09 | 1231)</t>
+  </si>
+  <si>
+    <t>Mucosolve (Ambroxol) 30 mg/60 ml Syrup 50x: ₱6.0 (2021-02-17 | 6878)</t>
+  </si>
+  <si>
+    <t>Mucosolve (Ambroxol) 30 mg/60 ml Syrup 50x: ₱6.0 (2021-03-02 | 345)</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +439,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>44228</v>
+        <v>44250</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -464,20 +473,12 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>44235</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -486,7 +487,42 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/addons/pharma-pos/demo_excel/deliveries/pharma_pos.delivery.xlsx
+++ b/addons/pharma-pos/demo_excel/deliveries/pharma_pos.delivery.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Invoice Date</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Mucosolve (Ambroxol) 30 mg/60 ml Syrup 50x: ₱6.0 (2021-03-02 | 345)</t>
+  </si>
+  <si>
+    <t>Mucosolve (Ambroxol) 30 mg/60 ml Syrup 50x: ₱6.0 (2021-02-08 | 56)</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,6 +528,15 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
